--- a/miluokoushuju.xlsx
+++ b/miluokoushuju.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="7515" windowHeight="4455"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserQQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserAge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +219,26 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户排名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserWei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:H33"/>
+  <dimension ref="D6:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -674,7 +686,7 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:8">
+    <row r="6" spans="4:14">
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
@@ -682,8 +694,15 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="4:8">
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -699,8 +718,23 @@
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="4:8">
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
       <c r="D8" s="1">
         <v>1</v>
       </c>
@@ -716,8 +750,23 @@
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14">
       <c r="D9" s="1">
         <v>2</v>
       </c>
@@ -733,8 +782,23 @@
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14">
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -748,10 +812,25 @@
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
       <c r="D11" s="1">
         <v>4</v>
       </c>
@@ -759,16 +838,31 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
       <c r="D12" s="1">
         <v>5</v>
       </c>
@@ -776,16 +870,31 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14">
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -793,18 +902,39 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="H15" s="3"/>
     </row>
     <row r="17" spans="4:8">
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -822,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -834,13 +964,13 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="4:8">
@@ -851,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="4:8">
@@ -868,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:8">
@@ -885,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="4:8">
@@ -902,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="4:8">
@@ -919,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="4:8">
@@ -933,15 +1063,15 @@
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="4:8">
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -973,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="4:8">
@@ -990,13 +1120,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="4:8">
@@ -1007,13 +1137,13 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="4:8">
@@ -1024,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
         <v>45</v>
       </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="4:8">
@@ -1041,20 +1171,21 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D27:H27"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miluokoushuju.xlsx
+++ b/miluokoushuju.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="7515" windowHeight="4455"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>UserWei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米粒数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D6:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,13 +833,13 @@
         <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="4:14">
@@ -852,15 +864,9 @@
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1">
@@ -884,15 +890,9 @@
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="1">
@@ -916,15 +916,9 @@
       <c r="K13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="4:14">
       <c r="H14" s="3"/>

--- a/miluokoushuju.xlsx
+++ b/miluokoushuju.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="7515" windowHeight="4455"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>用户信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CategoryID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>keywords</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文章类别号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UerId </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户IP地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户排名表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +231,38 @@
   </si>
   <si>
     <t>米粒数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticlePraise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章点赞率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D6:N33"/>
+  <dimension ref="D6:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,7 +719,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -801,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="4:14">
@@ -833,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:14">
@@ -850,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -864,9 +876,15 @@
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="4:14">
       <c r="D12" s="1">
@@ -884,12 +902,8 @@
       <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -910,12 +924,8 @@
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -946,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -961,10 +971,10 @@
         <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="4:8">
@@ -978,10 +988,10 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:8">
@@ -995,10 +1005,10 @@
         <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="4:8">
@@ -1012,10 +1022,10 @@
         <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="4:8">
@@ -1029,43 +1039,43 @@
         <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:8">
       <c r="D25" s="3">
         <v>7</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="4:8">
       <c r="D27" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1097,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="4:8">
@@ -1114,13 +1124,13 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="4:8">
@@ -1134,10 +1144,10 @@
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="4:8">
@@ -1150,28 +1160,11 @@
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
